--- a/DBMS/샘플/학사정보-테이블명세(2022-04-28).xlsx
+++ b/DBMS/샘플/학사정보-테이블명세(2022-04-28).xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
     <sheet name="학생정보" sheetId="3" r:id="rId2"/>
     <sheet name="성적정보" sheetId="4" r:id="rId3"/>
-    <sheet name="성적정보 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="bbs_오라클" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -337,18 +337,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>과목명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_STNUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> SC_STNUM + SC_SUBJECT UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과목정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,27 +345,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>과목코드</t>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_subject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글문자열(25)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(25)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4939,7 +4995,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5595,7 +5651,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>14</v>
@@ -5620,7 +5676,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -5630,9 +5686,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="J3" s="39"/>
       <c r="K3" s="40"/>
       <c r="L3" s="19"/>
     </row>
@@ -5693,54 +5747,44 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -5752,10 +5796,18 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -5767,10 +5819,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -5782,10 +5842,16 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -5797,10 +5863,16 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -6119,11 +6191,8 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>